--- a/Desarrollo de portales empresariales o corporativos/DESF_405_PEA_2023_DESARROLLO_PORTALES_EMPRESARIALES_O_COORPORATIVOS_CHOLCA.xlsx
+++ b/Desarrollo de portales empresariales o corporativos/DESF_405_PEA_2023_DESARROLLO_PORTALES_EMPRESARIALES_O_COORPORATIVOS_CHOLCA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personBGCC\ITSJAPON\scriptsBaseDeDatos\Desarrollo de portales empresariales o corporativos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codeSource\scriptsBaseDeDatos\Desarrollo de portales empresariales o corporativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C3702-83E4-4A69-8477-811279C6C3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9180884-625A-40CD-9028-ACBCC8D117C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="209">
   <si>
     <t>PEA DESARROLLO DE PORTALES EMPRESARIALES O CORPORATIVOS</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>Prerrequisito</t>
-  </si>
-  <si>
-    <t>APLICACIONES WEB II</t>
   </si>
   <si>
     <t>Integraciones curriculares</t>
@@ -423,9 +420,6 @@
     <t>IV PLANIFICACIÓN SEMANAL</t>
   </si>
   <si>
-    <t>N° Semana</t>
-  </si>
-  <si>
     <t>Tema Principal por Unidad</t>
   </si>
   <si>
@@ -464,10 +458,6 @@
     <t>Unidad 1: Introducción</t>
   </si>
   <si>
-    <t>Portales corporativos
-Tipos de portales corporativos</t>
-  </si>
-  <si>
     <t>Definiciones, importancia y tipos</t>
   </si>
   <si>
@@ -477,20 +467,12 @@
     <t>Explicación de las metodologías</t>
   </si>
   <si>
-    <t>A1. Análisis y comprensión del material de estudio
-A2. Tarea: Informe estructurado</t>
-  </si>
-  <si>
     <t>Consulta bibliográfica Preparar
 Exposición Ejemplificación Realizar tarea</t>
   </si>
   <si>
     <t>Impresos (textos): libros, fotocopias, periódicos, documentos, etc.
 Tableros didácticos: pizarra y franelógrafo.</t>
-  </si>
-  <si>
-    <t>A1. Análisis y comprensión del material de estudio
-A2. Tarea: Foro de portales empresariales</t>
   </si>
   <si>
     <t>Funcionalidad del software de un portal corporativo
@@ -908,6 +890,41 @@
   <si>
     <t>ING. BLANCA ALEXANDRA  JIMENEZ DURAN MSc.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Introducción a Portales corporativos
+Tipos de portales corporativos</t>
+  </si>
+  <si>
+    <t>Conoce los conceptos de portales corporativos , tipos, características y funcionalidades.</t>
+  </si>
+  <si>
+    <t>En conjunto con los estudiantes en clase se realiza el  análisis y estudio de los conceptos de portales corporativos, tipos, características y funcionalidades.</t>
+  </si>
+  <si>
+    <t>El estudiante investiga y analiza conceptos de portales corporativos , tipos, características y funcionalidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAO
+Microsoft Teams
+Presentación
+Artículos científicos sobre el tema. 
+Procesador de texto
+Plataformas multimedia
+Libros digitales
+</t>
+  </si>
+  <si>
+    <t>A1. Análisis de contenido de artículos científicos sobre el tema.
+A2. Análisis de contenidos digitales en base a las temáticas presentadas.
+A4. Extracción de información en plataformas digitales multimedia.  
+A5. Instalación de las herramientas de desarrollo.</t>
+  </si>
+  <si>
+    <t>El estudiante investiga y analiza la funcionalidad del software y  características universales de un portal corporativo.</t>
+  </si>
 </sst>
 </file>
 
@@ -916,7 +933,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,8 +1128,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1146,12 +1168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,14 +1548,212 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,116 +1764,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1694,187 +1803,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2139,8 +2155,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:J37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2190,19 +2206,19 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2218,21 +2234,21 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2248,21 +2264,21 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="112"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2277,28 +2293,28 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="100" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="101" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="113" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="115"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -2313,28 +2329,28 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="101" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="104" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="105"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -2349,28 +2365,28 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="101" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="46"/>
+      <c r="J7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="105"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="138"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -2385,28 +2401,28 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="102" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="101" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="104" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="105"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="92"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -2421,28 +2437,28 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="102">
+      <c r="B9" s="46"/>
+      <c r="C9" s="93">
         <v>96</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="101" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="103">
+      <c r="I9" s="46"/>
+      <c r="J9" s="94">
         <v>2</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2458,19 +2474,19 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="93"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2486,21 +2502,21 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -2516,23 +2532,23 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="66" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2548,23 +2564,23 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="303" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="69" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2580,23 +2596,23 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="66" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2611,24 +2627,24 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="69" t="s">
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2644,23 +2660,23 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="66" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2675,24 +2691,24 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" ht="133.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+    <row r="17" spans="1:26" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="69" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2708,21 +2724,21 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -2738,23 +2754,23 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="66" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2770,23 +2786,23 @@
       <c r="Z19" s="6"/>
     </row>
     <row r="20" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="73" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2802,23 +2818,23 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="73" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2834,23 +2850,23 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="73" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2866,23 +2882,23 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="73" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2898,23 +2914,23 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="73" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="47"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2929,28 +2945,28 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+    <row r="25" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="96" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="95" t="s">
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2966,31 +2982,31 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
       <c r="K26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26" s="45"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -3005,24 +3021,24 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="85" t="s">
+    <row r="27" spans="1:26" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="74"/>
-      <c r="M27" s="80"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="115"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -3037,22 +3053,22 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
+    <row r="28" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -3068,21 +3084,21 @@
       <c r="Z28" s="6"/>
     </row>
     <row r="29" spans="1:26" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
+      <c r="A29" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -3097,22 +3113,22 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
+    <row r="30" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -3128,21 +3144,21 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
+      <c r="A31" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -3157,22 +3173,22 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
+    <row r="32" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -3188,30 +3204,30 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="66" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="66" t="s">
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="9" t="s">
+      <c r="K33" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="66" t="s">
+      <c r="L33" s="46"/>
+      <c r="M33" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="L33" s="44"/>
-      <c r="M33" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -3228,29 +3244,29 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+      <c r="A34" s="125">
         <v>40</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="63">
+      <c r="B34" s="46"/>
+      <c r="C34" s="126">
         <v>50</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="63">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="126">
         <v>6</v>
       </c>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="10">
         <f>+F34+C34+A34</f>
         <v>96</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K34" s="126">
         <v>2</v>
       </c>
-      <c r="L34" s="44"/>
+      <c r="L34" s="46"/>
       <c r="M34" s="16">
         <v>5</v>
       </c>
@@ -3269,21 +3285,21 @@
       <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
+      <c r="A35" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -3299,25 +3315,25 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="66" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -3332,26 +3348,26 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" ht="194.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:26" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="68" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" s="44"/>
-      <c r="M37" s="45"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3367,21 +3383,21 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="45"/>
+      <c r="A38" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3397,32 +3413,32 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="140" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="D39" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="E39" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="M39" s="136" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="M39" s="48" t="s">
-        <v>77</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3438,34 +3454,34 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+    <row r="40" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="141"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="I40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="K40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L40" s="44"/>
-      <c r="M40" s="45"/>
+        <v>78</v>
+      </c>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -3481,21 +3497,21 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="45"/>
+      <c r="A41" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="47"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3511,44 +3527,44 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="106">
         <v>1</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="143" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="61">
+      <c r="G42" s="145">
         <v>1</v>
       </c>
-      <c r="H42" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="I42" s="50">
+      <c r="H42" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="146">
         <v>0.8</v>
       </c>
-      <c r="J42" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="K42" s="50">
+      <c r="J42" s="147" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" s="146">
         <v>0.3</v>
       </c>
-      <c r="L42" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="M42" s="52" t="s">
-        <v>91</v>
+      <c r="L42" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="M42" s="44" t="s">
+        <v>207</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -3565,27 +3581,27 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="53">
+      <c r="A43" s="107"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="150">
         <v>45255</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="33">
+      <c r="F43" s="150"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="151">
         <f>+E43</f>
         <v>45255</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="33">
+      <c r="I43" s="146"/>
+      <c r="J43" s="151">
         <f>+H43</f>
         <v>45255</v>
       </c>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="52"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="44"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -3601,42 +3617,42 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="88" t="s">
+      <c r="A44" s="107"/>
+      <c r="B44" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="38">
+        <v>1</v>
+      </c>
+      <c r="H44" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="J44" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="K44" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="L44" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="M44" s="44" t="s">
         <v>93</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="90">
-        <v>1</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="144">
-        <v>0.8</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K44" s="144">
-        <v>0.3</v>
-      </c>
-      <c r="L44" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="M44" s="150" t="s">
-        <v>98</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3653,28 +3669,28 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="143">
+      <c r="A45" s="107"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="34">
         <f>+E43</f>
         <v>45255</v>
       </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="90"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="27">
         <f>+E45</f>
         <v>45255</v>
       </c>
-      <c r="I45" s="144"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="27">
         <f>+H45</f>
         <v>45255</v>
       </c>
-      <c r="K45" s="144"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="150"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="44"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -3690,42 +3706,42 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="88" t="s">
+      <c r="A46" s="107"/>
+      <c r="B46" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="90">
+        <v>90</v>
+      </c>
+      <c r="G46" s="38">
         <v>1</v>
       </c>
       <c r="H46" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="I46" s="144">
-        <v>0.8</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K46" s="144">
-        <v>0.3</v>
-      </c>
-      <c r="L46" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="M46" s="150" t="s">
-        <v>101</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3742,28 +3758,28 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="143">
+      <c r="A47" s="108"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="34">
         <f>+E45</f>
         <v>45255</v>
       </c>
-      <c r="F47" s="143"/>
-      <c r="G47" s="90"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="38"/>
       <c r="H47" s="27">
         <f>+E47</f>
         <v>45255</v>
       </c>
-      <c r="I47" s="144"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="27">
         <f>+H47</f>
         <v>45255</v>
       </c>
-      <c r="K47" s="144"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="150"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="44"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -3779,21 +3795,21 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="45"/>
+      <c r="A48" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -3809,42 +3825,42 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="151"/>
-      <c r="B49" s="87" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="38">
+        <v>1</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K49" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M49" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G49" s="90">
-        <v>1</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="144">
-        <v>0.8</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K49" s="144">
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M49" s="142" t="s">
-        <v>108</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3861,28 +3877,28 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="143">
+      <c r="A50" s="43"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="34">
         <f>+E47</f>
         <v>45255</v>
       </c>
-      <c r="F50" s="143"/>
-      <c r="G50" s="90"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="27">
         <f>+E50</f>
         <v>45255</v>
       </c>
-      <c r="I50" s="144"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="27">
         <f>+H50</f>
         <v>45255</v>
       </c>
-      <c r="K50" s="144"/>
-      <c r="L50" s="141"/>
-      <c r="M50" s="142"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="33"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -3898,44 +3914,44 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+      <c r="A51" s="106">
         <v>2</v>
       </c>
-      <c r="B51" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="88" t="s">
+      <c r="B51" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="90">
+        <v>90</v>
+      </c>
+      <c r="G51" s="38">
         <v>1</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I51" s="144">
+        <v>91</v>
+      </c>
+      <c r="I51" s="31">
         <v>0.8</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K51" s="144">
+        <v>85</v>
+      </c>
+      <c r="K51" s="31">
         <v>0.5</v>
       </c>
-      <c r="L51" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="M51" s="150" t="s">
-        <v>112</v>
+      <c r="L51" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="M51" s="44" t="s">
+        <v>107</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -3952,28 +3968,28 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="143">
+      <c r="A52" s="107"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="34">
         <f>+E50+7</f>
         <v>45262</v>
       </c>
-      <c r="F52" s="143"/>
-      <c r="G52" s="90"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="38"/>
       <c r="H52" s="27">
         <f>+E52</f>
         <v>45262</v>
       </c>
-      <c r="I52" s="144"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="27">
         <f>+H52</f>
         <v>45262</v>
       </c>
-      <c r="K52" s="144"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="150"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="44"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -3989,42 +4005,42 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="88" t="s">
+      <c r="A53" s="107"/>
+      <c r="B53" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="38">
+        <v>1</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="90">
-        <v>1</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53" s="144">
+      <c r="I53" s="31">
         <v>0.8</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K53" s="144">
+        <v>85</v>
+      </c>
+      <c r="K53" s="31">
         <v>0.3</v>
       </c>
-      <c r="L53" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M53" s="142" t="s">
-        <v>117</v>
+      <c r="L53" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -4041,28 +4057,28 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="143">
+      <c r="A54" s="108"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="34">
         <f>+E52</f>
         <v>45262</v>
       </c>
-      <c r="F54" s="143"/>
-      <c r="G54" s="90"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="38"/>
       <c r="H54" s="27">
         <f>+E54</f>
         <v>45262</v>
       </c>
-      <c r="I54" s="144"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="27">
         <f>+H54</f>
         <v>45262</v>
       </c>
-      <c r="K54" s="144"/>
-      <c r="L54" s="141"/>
-      <c r="M54" s="142"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="33"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4078,21 +4094,21 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="145"/>
-      <c r="K55" s="145"/>
-      <c r="L55" s="145"/>
-      <c r="M55" s="146"/>
+      <c r="A55" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="41"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4108,42 +4124,42 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="151"/>
-      <c r="B56" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="88" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G56" s="90">
+        <v>116</v>
+      </c>
+      <c r="G56" s="38">
         <v>2</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I56" s="144">
+        <v>102</v>
+      </c>
+      <c r="I56" s="31">
         <v>0.8</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K56" s="144">
+        <v>85</v>
+      </c>
+      <c r="K56" s="31">
         <v>0.3</v>
       </c>
-      <c r="L56" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M56" s="142" t="s">
-        <v>122</v>
+      <c r="L56" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -4160,28 +4176,28 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="143">
+      <c r="A57" s="43"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="34">
         <f>+E54</f>
         <v>45262</v>
       </c>
-      <c r="F57" s="143"/>
-      <c r="G57" s="90"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="38"/>
       <c r="H57" s="27">
         <f>+E57</f>
         <v>45262</v>
       </c>
-      <c r="I57" s="144"/>
+      <c r="I57" s="31"/>
       <c r="J57" s="27">
         <f>+H57</f>
         <v>45262</v>
       </c>
-      <c r="K57" s="144"/>
-      <c r="L57" s="141"/>
-      <c r="M57" s="142"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="33"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4197,44 +4213,44 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="151">
+      <c r="A58" s="42">
         <v>3</v>
       </c>
-      <c r="B58" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="88" t="s">
+      <c r="B58" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="90">
+        <v>116</v>
+      </c>
+      <c r="G58" s="38">
         <v>1</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I58" s="144">
+        <v>102</v>
+      </c>
+      <c r="I58" s="31">
         <v>0.8</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K58" s="144">
+        <v>85</v>
+      </c>
+      <c r="K58" s="31">
         <v>0.3</v>
       </c>
-      <c r="L58" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M58" s="142" t="s">
-        <v>122</v>
+      <c r="L58" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M58" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -4251,28 +4267,28 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="143">
+      <c r="A59" s="43"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="34">
         <f>+E57+7</f>
         <v>45269</v>
       </c>
-      <c r="F59" s="143"/>
-      <c r="G59" s="90"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="27">
         <f>+E59</f>
         <v>45269</v>
       </c>
-      <c r="I59" s="144"/>
+      <c r="I59" s="31"/>
       <c r="J59" s="27">
         <f>+H59</f>
         <v>45269</v>
       </c>
-      <c r="K59" s="144"/>
-      <c r="L59" s="141"/>
-      <c r="M59" s="142"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="33"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -4288,21 +4304,21 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="145"/>
-      <c r="L60" s="145"/>
-      <c r="M60" s="146"/>
+      <c r="A60" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="41"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4318,44 +4334,44 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
+      <c r="A61" s="106">
         <v>3</v>
       </c>
-      <c r="B61" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="88" t="s">
+      <c r="B61" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G61" s="90">
+        <v>116</v>
+      </c>
+      <c r="G61" s="38">
         <v>1</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="144">
+        <v>102</v>
+      </c>
+      <c r="I61" s="31">
         <v>0.8</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61" s="144">
+        <v>85</v>
+      </c>
+      <c r="K61" s="31">
         <v>0.3</v>
       </c>
-      <c r="L61" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M61" s="142" t="s">
-        <v>122</v>
+      <c r="L61" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M61" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -4372,28 +4388,28 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="143">
+      <c r="A62" s="107"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="34">
         <f>+E59</f>
         <v>45269</v>
       </c>
-      <c r="F62" s="143"/>
-      <c r="G62" s="90"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="38"/>
       <c r="H62" s="27">
         <f>+E62</f>
         <v>45269</v>
       </c>
-      <c r="I62" s="144"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="27">
         <f>+H62</f>
         <v>45269</v>
       </c>
-      <c r="K62" s="144"/>
-      <c r="L62" s="141"/>
-      <c r="M62" s="142"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="33"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -4409,42 +4425,42 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="88" t="s">
+      <c r="A63" s="107"/>
+      <c r="B63" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G63" s="90">
+        <v>116</v>
+      </c>
+      <c r="G63" s="38">
         <v>1</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="144">
+        <v>124</v>
+      </c>
+      <c r="I63" s="31">
         <v>0.8</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K63" s="144">
+        <v>85</v>
+      </c>
+      <c r="K63" s="31">
         <v>0.5</v>
       </c>
-      <c r="L63" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M63" s="142" t="s">
-        <v>122</v>
+      <c r="L63" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M63" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -4461,28 +4477,28 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="143">
+      <c r="A64" s="108"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="34">
         <f>+E62</f>
         <v>45269</v>
       </c>
-      <c r="F64" s="143"/>
-      <c r="G64" s="90"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="38"/>
       <c r="H64" s="27">
         <f>+E64</f>
         <v>45269</v>
       </c>
-      <c r="I64" s="144"/>
+      <c r="I64" s="31"/>
       <c r="J64" s="27">
         <f>+H64</f>
         <v>45269</v>
       </c>
-      <c r="K64" s="144"/>
-      <c r="L64" s="141"/>
-      <c r="M64" s="142"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="33"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -4498,40 +4514,40 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
+      <c r="A65" s="130">
         <v>4</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="38">
+        <v>2</v>
+      </c>
+      <c r="H65" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="88" t="s">
+      <c r="I65" s="31"/>
+      <c r="J65" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65" s="31"/>
+      <c r="L65" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M65" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="D65" s="88" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="90">
-        <v>2</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I65" s="144"/>
-      <c r="J65" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K65" s="144"/>
-      <c r="L65" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M65" s="142" t="s">
-        <v>136</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -4548,28 +4564,28 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="143">
+      <c r="A66" s="131"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="34">
         <f>+E64+7</f>
         <v>45276</v>
       </c>
-      <c r="F66" s="143"/>
-      <c r="G66" s="90"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="38"/>
       <c r="H66" s="27">
         <f>+E66</f>
         <v>45276</v>
       </c>
-      <c r="I66" s="144"/>
+      <c r="I66" s="31"/>
       <c r="J66" s="27">
         <f>+H66</f>
         <v>45276</v>
       </c>
-      <c r="K66" s="144"/>
-      <c r="L66" s="141"/>
-      <c r="M66" s="142"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="33"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -4585,21 +4601,21 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="39"/>
+      <c r="A67" s="131"/>
+      <c r="B67" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="129"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -4615,42 +4631,42 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="88" t="s">
+      <c r="A68" s="131"/>
+      <c r="B68" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G68" s="90">
+        <v>116</v>
+      </c>
+      <c r="G68" s="38">
         <v>1</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I68" s="144">
+        <v>124</v>
+      </c>
+      <c r="I68" s="31">
         <v>0.8</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K68" s="144">
+        <v>85</v>
+      </c>
+      <c r="K68" s="31">
         <v>0.4</v>
       </c>
-      <c r="L68" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M68" s="142" t="s">
-        <v>122</v>
+      <c r="L68" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -4668,27 +4684,27 @@
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="143">
+      <c r="B69" s="35"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="34">
         <f>+E66</f>
         <v>45276</v>
       </c>
-      <c r="F69" s="143"/>
-      <c r="G69" s="90"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="38"/>
       <c r="H69" s="27">
         <f>+E69</f>
         <v>45276</v>
       </c>
-      <c r="I69" s="144"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="27">
         <f>+H69</f>
         <v>45276</v>
       </c>
-      <c r="K69" s="144"/>
-      <c r="L69" s="141"/>
-      <c r="M69" s="142"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="33"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -4705,41 +4721,41 @@
     </row>
     <row r="70" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
-      <c r="B70" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="88" t="s">
+      <c r="B70" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G70" s="90">
+        <v>116</v>
+      </c>
+      <c r="G70" s="38">
         <v>2</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I70" s="144">
+        <v>124</v>
+      </c>
+      <c r="I70" s="31">
         <v>0.8</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K70" s="144">
+        <v>85</v>
+      </c>
+      <c r="K70" s="31">
         <v>0.4</v>
       </c>
-      <c r="L70" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M70" s="142" t="s">
-        <v>122</v>
+      <c r="L70" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M70" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4757,27 +4773,27 @@
     </row>
     <row r="71" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="143">
+      <c r="B71" s="35"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="34">
         <f>+E69</f>
         <v>45276</v>
       </c>
-      <c r="F71" s="143"/>
-      <c r="G71" s="90"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="38"/>
       <c r="H71" s="27">
         <f>+E71</f>
         <v>45276</v>
       </c>
-      <c r="I71" s="144"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="27">
         <f>+H71</f>
         <v>45276</v>
       </c>
-      <c r="K71" s="144"/>
-      <c r="L71" s="141"/>
-      <c r="M71" s="142"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="33"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -4793,21 +4809,21 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="145"/>
-      <c r="C72" s="145"/>
-      <c r="D72" s="145"/>
-      <c r="E72" s="145"/>
-      <c r="F72" s="145"/>
-      <c r="G72" s="145"/>
-      <c r="H72" s="145"/>
-      <c r="I72" s="145"/>
-      <c r="J72" s="145"/>
-      <c r="K72" s="145"/>
-      <c r="L72" s="145"/>
-      <c r="M72" s="146"/>
+      <c r="A72" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="41"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -4823,44 +4839,44 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
+      <c r="A73" s="130">
         <v>5</v>
       </c>
-      <c r="B73" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="88" t="s">
+      <c r="B73" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G73" s="90">
+        <v>116</v>
+      </c>
+      <c r="G73" s="38">
         <v>1</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I73" s="144">
+        <v>124</v>
+      </c>
+      <c r="I73" s="31">
         <v>0.8</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K73" s="144">
+        <v>85</v>
+      </c>
+      <c r="K73" s="31">
         <v>0.4</v>
       </c>
-      <c r="L73" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M73" s="142" t="s">
-        <v>122</v>
+      <c r="L73" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M73" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4877,28 +4893,28 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="143">
+      <c r="A74" s="131"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="34">
         <f>+E71+21</f>
         <v>45297</v>
       </c>
-      <c r="F74" s="143"/>
-      <c r="G74" s="90"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="38"/>
       <c r="H74" s="27">
         <f>+E74</f>
         <v>45297</v>
       </c>
-      <c r="I74" s="144"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="27">
         <f>+H74</f>
         <v>45297</v>
       </c>
-      <c r="K74" s="144"/>
-      <c r="L74" s="141"/>
-      <c r="M74" s="142"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="33"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -4914,42 +4930,42 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="88" t="s">
+      <c r="A75" s="131"/>
+      <c r="B75" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G75" s="90">
+        <v>116</v>
+      </c>
+      <c r="G75" s="38">
         <v>1</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="144">
+        <v>124</v>
+      </c>
+      <c r="I75" s="31">
         <v>0.8</v>
       </c>
       <c r="J75" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K75" s="144">
+        <v>85</v>
+      </c>
+      <c r="K75" s="31">
         <v>1</v>
       </c>
-      <c r="L75" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M75" s="142" t="s">
-        <v>122</v>
+      <c r="L75" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M75" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -4966,27 +4982,27 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="143">
+      <c r="A76" s="131"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="34">
         <f>+E74</f>
         <v>45297</v>
       </c>
-      <c r="F76" s="143"/>
-      <c r="G76" s="90"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="38"/>
       <c r="H76" s="27">
         <f>+E76</f>
         <v>45297</v>
       </c>
-      <c r="I76" s="144"/>
+      <c r="I76" s="31"/>
       <c r="J76" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="K76" s="144"/>
-      <c r="L76" s="141"/>
-      <c r="M76" s="142"/>
+        <v>143</v>
+      </c>
+      <c r="K76" s="31"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="33"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5002,21 +5018,21 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="39"/>
+      <c r="A77" s="131"/>
+      <c r="B77" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="128"/>
+      <c r="F77" s="128"/>
+      <c r="G77" s="128"/>
+      <c r="H77" s="128"/>
+      <c r="I77" s="128"/>
+      <c r="J77" s="128"/>
+      <c r="K77" s="128"/>
+      <c r="L77" s="128"/>
+      <c r="M77" s="129"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5032,42 +5048,42 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="72" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="88" t="s">
+      <c r="A78" s="131"/>
+      <c r="B78" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G78" s="90">
+        <v>116</v>
+      </c>
+      <c r="G78" s="38">
         <v>1</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I78" s="144">
+        <v>124</v>
+      </c>
+      <c r="I78" s="31">
         <v>0.8</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K78" s="144">
+        <v>85</v>
+      </c>
+      <c r="K78" s="31">
         <v>1</v>
       </c>
-      <c r="L78" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M78" s="142" t="s">
-        <v>152</v>
+      <c r="L78" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M78" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -5084,28 +5100,28 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="87"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="143">
+      <c r="A79" s="131"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="34">
         <f>+E76</f>
         <v>45297</v>
       </c>
-      <c r="F79" s="143"/>
-      <c r="G79" s="90"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="38"/>
       <c r="H79" s="27">
         <f>+E79</f>
         <v>45297</v>
       </c>
-      <c r="I79" s="144"/>
+      <c r="I79" s="31"/>
       <c r="J79" s="27">
         <f>+H79</f>
         <v>45297</v>
       </c>
-      <c r="K79" s="144"/>
-      <c r="L79" s="141"/>
-      <c r="M79" s="142"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="33"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5121,42 +5137,42 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="72" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80" s="88" t="s">
+      <c r="A80" s="131"/>
+      <c r="B80" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G80" s="135">
+        <v>116</v>
+      </c>
+      <c r="G80" s="54">
         <v>2</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I80" s="138">
+        <v>124</v>
+      </c>
+      <c r="I80" s="57">
         <v>0.8</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K80" s="138">
+        <v>85</v>
+      </c>
+      <c r="K80" s="57">
         <v>1</v>
       </c>
-      <c r="L80" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M80" s="142" t="s">
-        <v>152</v>
+      <c r="L80" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M80" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -5173,28 +5189,28 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="143">
+      <c r="A81" s="131"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="34">
         <f>+E79</f>
         <v>45297</v>
       </c>
-      <c r="F81" s="143"/>
-      <c r="G81" s="136"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="27">
         <f>+E81</f>
         <v>45297</v>
       </c>
-      <c r="I81" s="139"/>
+      <c r="I81" s="58"/>
       <c r="J81" s="27">
         <f>+H81</f>
         <v>45297</v>
       </c>
-      <c r="K81" s="139"/>
-      <c r="L81" s="141"/>
-      <c r="M81" s="142"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="33"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -5210,36 +5226,36 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="72" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="87" t="s">
+      <c r="A82" s="131"/>
+      <c r="B82" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G82" s="55"/>
+      <c r="H82" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I82" s="58"/>
+      <c r="J82" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K82" s="58"/>
+      <c r="L82" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M82" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="C82" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G82" s="136"/>
-      <c r="H82" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I82" s="139"/>
-      <c r="J82" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K82" s="139"/>
-      <c r="L82" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="M82" s="142" t="s">
-        <v>161</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -5256,28 +5272,28 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="143">
+      <c r="A83" s="132"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="34">
         <f>+E81</f>
         <v>45297</v>
       </c>
-      <c r="F83" s="143"/>
-      <c r="G83" s="137"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="26">
         <f>+E83</f>
         <v>45297</v>
       </c>
-      <c r="I83" s="140"/>
+      <c r="I83" s="59"/>
       <c r="J83" s="26">
         <f>+H83</f>
         <v>45297</v>
       </c>
-      <c r="K83" s="140"/>
-      <c r="L83" s="141"/>
-      <c r="M83" s="142"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="33"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5299,28 +5315,28 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G84" s="21">
         <f>SUM(G44:G83)</f>
         <v>20</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I84" s="22">
         <f>SUM(I44:I83)</f>
         <v>12.000000000000002</v>
       </c>
       <c r="J84" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K84" s="23">
         <f>SUM(K44:K83)</f>
         <v>7.5</v>
       </c>
       <c r="L84" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M84" s="18">
         <f>+G84+I84+K84</f>
@@ -5340,21 +5356,21 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="45"/>
+      <c r="A85" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="47"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -5370,23 +5386,23 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="147" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="148" t="s">
-        <v>168</v>
-      </c>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="45"/>
+      <c r="A86" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="47"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -5402,26 +5418,26 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="130" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="44"/>
-      <c r="G87" s="132" t="s">
-        <v>170</v>
-      </c>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
+      <c r="A87" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="46"/>
+      <c r="G87" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
       <c r="M87" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -5438,26 +5454,26 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="130" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" s="44"/>
-      <c r="G88" s="132" t="s">
-        <v>172</v>
-      </c>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="133" t="s">
-        <v>48</v>
+      <c r="A88" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="46"/>
+      <c r="G88" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="63" t="s">
+        <v>47</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -5474,23 +5490,23 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="130" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="45"/>
+      <c r="A89" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="47"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -5506,26 +5522,26 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="130" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="F90" s="44"/>
-      <c r="G90" s="132" t="s">
-        <v>176</v>
-      </c>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="44"/>
+      <c r="A90" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" s="46"/>
+      <c r="G90" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
       <c r="M90" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -5542,26 +5558,26 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="130" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" s="44"/>
-      <c r="G91" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
+      <c r="A91" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="46"/>
+      <c r="G91" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
       <c r="M91" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -5578,26 +5594,26 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="130" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="132" t="s">
-        <v>180</v>
-      </c>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="44"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="133" t="s">
-        <v>48</v>
+      <c r="A92" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="46"/>
+      <c r="G92" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="63" t="s">
+        <v>47</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -5614,23 +5630,23 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="130" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="45"/>
+      <c r="A93" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="47"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -5646,21 +5662,21 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="44"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="45"/>
+      <c r="A94" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="47"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -5676,23 +5692,23 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="134" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="45"/>
+      <c r="A95" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="47"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -5708,23 +5724,23 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="44"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="45"/>
+      <c r="A96" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="47"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -5740,21 +5756,21 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="45"/>
+      <c r="A97" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="47"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -5770,25 +5786,25 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="116" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" s="44"/>
-      <c r="C98" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="120" t="s">
-        <v>190</v>
-      </c>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="44"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="45"/>
+      <c r="A98" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" s="46"/>
+      <c r="C98" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="47"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -5804,25 +5820,25 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="116" t="s">
-        <v>191</v>
-      </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="117" t="s">
-        <v>192</v>
-      </c>
-      <c r="D99" s="117"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="117"/>
-      <c r="H99" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="45"/>
+      <c r="A99" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="46"/>
+      <c r="C99" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="47"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -5838,23 +5854,23 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="117" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="118"/>
-      <c r="J100" s="118"/>
-      <c r="K100" s="118"/>
-      <c r="L100" s="118"/>
-      <c r="M100" s="45"/>
+      <c r="A100" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="46"/>
+      <c r="C100" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
+      <c r="K100" s="76"/>
+      <c r="L100" s="76"/>
+      <c r="M100" s="47"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -5870,23 +5886,23 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="116" t="s">
-        <v>196</v>
-      </c>
-      <c r="B101" s="44"/>
-      <c r="C101" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="D101" s="117"/>
-      <c r="E101" s="117"/>
-      <c r="F101" s="117"/>
-      <c r="G101" s="117"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="118"/>
-      <c r="J101" s="118"/>
-      <c r="K101" s="118"/>
-      <c r="L101" s="118"/>
-      <c r="M101" s="45"/>
+      <c r="A101" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="46"/>
+      <c r="C101" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="76"/>
+      <c r="L101" s="76"/>
+      <c r="M101" s="47"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -5902,23 +5918,23 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="B102" s="44"/>
-      <c r="C102" s="117" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
-      <c r="F102" s="117"/>
-      <c r="G102" s="117"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="45"/>
+      <c r="A102" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" s="46"/>
+      <c r="C102" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="47"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -5934,21 +5950,21 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="44"/>
-      <c r="M103" s="45"/>
+      <c r="A103" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="47"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -5964,25 +5980,25 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="44"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="45"/>
+      <c r="A104" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" s="46"/>
+      <c r="C104" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="I104" s="46"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="47"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -5998,19 +6014,19 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="127"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="117"/>
-      <c r="D105" s="117"/>
-      <c r="E105" s="117"/>
-      <c r="F105" s="117"/>
-      <c r="G105" s="117"/>
-      <c r="H105" s="128"/>
-      <c r="I105" s="128"/>
-      <c r="J105" s="128"/>
-      <c r="K105" s="128"/>
-      <c r="L105" s="128"/>
-      <c r="M105" s="129"/>
+      <c r="A105" s="72"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="74"/>
+      <c r="M105" s="75"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -6026,19 +6042,19 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="117"/>
-      <c r="D106" s="117"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
-      <c r="G106" s="117"/>
-      <c r="H106" s="128"/>
-      <c r="I106" s="128"/>
-      <c r="J106" s="128"/>
-      <c r="K106" s="128"/>
-      <c r="L106" s="128"/>
-      <c r="M106" s="129"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="74"/>
+      <c r="L106" s="74"/>
+      <c r="M106" s="75"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
@@ -6054,19 +6070,19 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="117"/>
-      <c r="D107" s="117"/>
-      <c r="E107" s="117"/>
-      <c r="F107" s="117"/>
-      <c r="G107" s="117"/>
-      <c r="H107" s="128"/>
-      <c r="I107" s="128"/>
-      <c r="J107" s="128"/>
-      <c r="K107" s="128"/>
-      <c r="L107" s="128"/>
-      <c r="M107" s="129"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="74"/>
+      <c r="M107" s="75"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -6082,25 +6098,25 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="121" t="s">
+      <c r="A108" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="122"/>
-      <c r="C108" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="D108" s="124"/>
-      <c r="E108" s="124"/>
-      <c r="F108" s="124"/>
-      <c r="G108" s="124"/>
-      <c r="H108" s="123" t="s">
-        <v>205</v>
-      </c>
-      <c r="I108" s="124"/>
-      <c r="J108" s="124"/>
-      <c r="K108" s="124"/>
-      <c r="L108" s="124"/>
-      <c r="M108" s="125"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="I108" s="69"/>
+      <c r="J108" s="69"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="69"/>
+      <c r="M108" s="70"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
@@ -31015,45 +31031,255 @@
     </row>
   </sheetData>
   <mergeCells count="312">
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="A73:A83"/>
+    <mergeCell ref="B67:M67"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:M102"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="A103:M103"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:M98"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:M108"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:M104"/>
+    <mergeCell ref="A105:B107"/>
+    <mergeCell ref="C105:G107"/>
+    <mergeCell ref="H105:M107"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="H96:M96"/>
+    <mergeCell ref="A97:M97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:L91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:L93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A94:M94"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="H95:M95"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A72:M72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G90:L90"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="A85:M85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:M86"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="M65:M66"/>
@@ -31078,255 +31304,45 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G90:L90"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="A85:M85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:M86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A72:M72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="H96:M96"/>
-    <mergeCell ref="A97:M97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:L91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G92:L93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A94:M94"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="H95:M95"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="H108:M108"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="H104:M104"/>
-    <mergeCell ref="A105:B107"/>
-    <mergeCell ref="C105:G107"/>
-    <mergeCell ref="H105:M107"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="H99:M102"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="A103:M103"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="H98:M98"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="A73:A83"/>
-    <mergeCell ref="B67:M67"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="L78:L79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -31345,6 +31361,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001950AD6CF58FD9408B82721E2E7CA47A" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="afc72ae6747cbd71484133612f7ca66d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0157d9ab-2bd2-4b26-9ac6-6cf31e8af793" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="294082239b2a03d1cbaf83d22ffcb124" ns2:_="">
     <xsd:import namespace="0157d9ab-2bd2-4b26-9ac6-6cf31e8af793"/>
@@ -31494,22 +31525,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FF5F7F-9CC8-4508-B4BF-63D670C951E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08C6A29-DD4A-4BE7-B585-66245A28F4D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E8FC70-F763-47AE-88B2-3C20C7E73CC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31525,21 +31558,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08C6A29-DD4A-4BE7-B585-66245A28F4D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FF5F7F-9CC8-4508-B4BF-63D670C951E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>